--- a/database/industries/felezat/kimia/product/yearly.xlsx
+++ b/database/industries/felezat/kimia/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDAA34D-C1B4-4373-9DA4-3307476322D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیا-معدنی کیمیای زنجان گستران</t>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +288,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -299,7 +300,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -346,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/felezat/kimia/product/yearly.xlsx
+++ b/database/industries/felezat/kimia/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDAA34D-C1B4-4373-9DA4-3307476322D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9B7E8-1918-4CE9-B099-1BD9B3A7D88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
-    <t>کیمیا-معدنی کیمیای زنجان گستران</t>
+    <t>کیمیا-ص. معدنی کیمیای زنجان گستران</t>
   </si>
   <si>
     <t>تولید و فروش</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>کنسانتره مس</t>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,7 +587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,7 +621,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -655,7 +655,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -722,11 +722,11 @@
       <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>12</v>
@@ -735,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -743,23 +743,23 @@
         <v>11</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>12</v>
+      <c r="E12" s="9">
+        <v>819</v>
       </c>
       <c r="F12" s="9">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="I12" s="9">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -767,23 +767,23 @@
         <v>11</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
+      <c r="E13" s="11">
+        <v>33</v>
       </c>
       <c r="F13" s="11">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="G13" s="11">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="H13" s="11">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="I13" s="11">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -792,22 +792,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>4003</v>
+        <v>3526</v>
       </c>
       <c r="F14" s="9">
-        <v>3526</v>
+        <v>5034</v>
       </c>
       <c r="G14" s="9">
-        <v>5034</v>
+        <v>7150</v>
       </c>
       <c r="H14" s="9">
-        <v>7150</v>
+        <v>2804</v>
       </c>
       <c r="I14" s="9">
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13719</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -816,22 +816,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>3341</v>
+        <v>960</v>
       </c>
       <c r="F15" s="11">
-        <v>960</v>
+        <v>1789</v>
       </c>
       <c r="G15" s="11">
-        <v>1789</v>
+        <v>2153</v>
       </c>
       <c r="H15" s="11">
-        <v>2153</v>
+        <v>1896</v>
       </c>
       <c r="I15" s="11">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -840,22 +840,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>63661</v>
+        <v>29303</v>
       </c>
       <c r="F16" s="9">
-        <v>29303</v>
+        <v>30866</v>
       </c>
       <c r="G16" s="9">
-        <v>30866</v>
+        <v>44341</v>
       </c>
       <c r="H16" s="9">
-        <v>44341</v>
+        <v>45214</v>
       </c>
       <c r="I16" s="9">
-        <v>45214</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -864,22 +864,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>13506</v>
+        <v>39064</v>
       </c>
       <c r="F17" s="11">
-        <v>39064</v>
+        <v>33413</v>
       </c>
       <c r="G17" s="11">
-        <v>33413</v>
+        <v>47593</v>
       </c>
       <c r="H17" s="11">
-        <v>47593</v>
+        <v>60179</v>
       </c>
       <c r="I17" s="11">
-        <v>60179</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -903,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -918,36 +918,36 @@
       <c r="G19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>12</v>
+      <c r="H19" s="11">
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>84511</v>
+        <v>73705</v>
       </c>
       <c r="F20" s="13">
-        <v>73705</v>
+        <v>71377</v>
       </c>
       <c r="G20" s="13">
-        <v>71377</v>
+        <v>101717</v>
       </c>
       <c r="H20" s="13">
-        <v>101717</v>
+        <v>112262</v>
       </c>
       <c r="I20" s="13">
-        <v>112262</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>112612</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -957,7 +957,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -967,7 +967,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -977,7 +977,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -999,7 +999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1009,7 +1009,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
@@ -1041,23 +1041,23 @@
         <v>11</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>12</v>
+      <c r="E27" s="11">
+        <v>811</v>
       </c>
       <c r="F27" s="11">
-        <v>811</v>
+        <v>604</v>
       </c>
       <c r="G27" s="11">
-        <v>604</v>
+        <v>50</v>
       </c>
       <c r="H27" s="11">
-        <v>50</v>
+        <v>1583</v>
       </c>
       <c r="I27" s="11">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
@@ -1065,8 +1065,8 @@
         <v>25</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
+      <c r="E28" s="9">
+        <v>0</v>
       </c>
       <c r="F28" s="9">
         <v>0</v>
@@ -1074,14 +1074,14 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
-        <v>0</v>
+      <c r="H28" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
@@ -1089,23 +1089,23 @@
         <v>11</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>12</v>
+      <c r="E29" s="11">
+        <v>108</v>
       </c>
       <c r="F29" s="11">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="G29" s="11">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="H29" s="11">
-        <v>393</v>
+        <v>216</v>
       </c>
       <c r="I29" s="11">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
@@ -1114,22 +1114,22 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>3083</v>
+        <v>1386</v>
       </c>
       <c r="F30" s="9">
-        <v>1386</v>
+        <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>6070</v>
       </c>
       <c r="H30" s="9">
-        <v>6070</v>
+        <v>5654</v>
       </c>
       <c r="I30" s="9">
-        <v>5654</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14622</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>17</v>
       </c>
@@ -1138,22 +1138,22 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>2743</v>
+        <v>1431</v>
       </c>
       <c r="F31" s="11">
-        <v>1431</v>
+        <v>1456</v>
       </c>
       <c r="G31" s="11">
-        <v>1456</v>
+        <v>2470</v>
       </c>
       <c r="H31" s="11">
-        <v>2470</v>
+        <v>2125</v>
       </c>
       <c r="I31" s="11">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>18</v>
       </c>
@@ -1162,22 +1162,22 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>63715</v>
+        <v>29668</v>
       </c>
       <c r="F32" s="9">
-        <v>29668</v>
+        <v>29597</v>
       </c>
       <c r="G32" s="9">
-        <v>29597</v>
+        <v>44659</v>
       </c>
       <c r="H32" s="9">
-        <v>44659</v>
+        <v>38450</v>
       </c>
       <c r="I32" s="9">
-        <v>38450</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>13506</v>
+        <v>0</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>60179</v>
       </c>
       <c r="I33" s="11">
-        <v>60179</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64329</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>20</v>
       </c>
@@ -1225,14 +1225,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>12</v>
+      <c r="E35" s="11">
+        <v>0</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -1247,29 +1247,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>83047</v>
+        <v>33404</v>
       </c>
       <c r="F36" s="13">
-        <v>33404</v>
+        <v>32013</v>
       </c>
       <c r="G36" s="13">
-        <v>32013</v>
+        <v>53642</v>
       </c>
       <c r="H36" s="13">
-        <v>53642</v>
+        <v>108207</v>
       </c>
       <c r="I36" s="13">
-        <v>108207</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>106197</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1289,7 +1289,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1299,7 +1299,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
@@ -1363,23 +1363,23 @@
         <v>27</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>12</v>
+      <c r="E43" s="11">
+        <v>202858</v>
       </c>
       <c r="F43" s="11">
-        <v>202858</v>
+        <v>164455</v>
       </c>
       <c r="G43" s="11">
-        <v>164455</v>
+        <v>26258</v>
       </c>
       <c r="H43" s="11">
-        <v>26258</v>
+        <v>1149937</v>
       </c>
       <c r="I43" s="11">
-        <v>1149937</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1544737</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>24</v>
       </c>
@@ -1387,23 +1387,23 @@
         <v>27</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
+      <c r="E44" s="9">
+        <v>-12911</v>
       </c>
       <c r="F44" s="9">
-        <v>-12911</v>
+        <v>0</v>
       </c>
       <c r="G44" s="9">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
         <v>-172</v>
       </c>
+      <c r="H44" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I44" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>15</v>
       </c>
@@ -1411,23 +1411,23 @@
         <v>27</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>12</v>
+      <c r="E45" s="11">
+        <v>14851</v>
       </c>
       <c r="F45" s="11">
-        <v>14851</v>
+        <v>40745</v>
       </c>
       <c r="G45" s="11">
-        <v>40745</v>
+        <v>128312</v>
       </c>
       <c r="H45" s="11">
-        <v>128312</v>
+        <v>140661</v>
       </c>
       <c r="I45" s="11">
-        <v>140661</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27945</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>144580</v>
+        <v>76427</v>
       </c>
       <c r="F46" s="9">
-        <v>76427</v>
+        <v>0</v>
       </c>
       <c r="G46" s="9">
-        <v>0</v>
+        <v>714061</v>
       </c>
       <c r="H46" s="9">
-        <v>714061</v>
+        <v>482270</v>
       </c>
       <c r="I46" s="9">
-        <v>482270</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3100134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>17</v>
       </c>
@@ -1460,22 +1460,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>107574</v>
+        <v>108248</v>
       </c>
       <c r="F47" s="11">
-        <v>108248</v>
+        <v>197203</v>
       </c>
       <c r="G47" s="11">
-        <v>197203</v>
+        <v>483592</v>
       </c>
       <c r="H47" s="11">
-        <v>483592</v>
+        <v>724221</v>
       </c>
       <c r="I47" s="11">
-        <v>724221</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>96565</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>18</v>
       </c>
@@ -1484,22 +1484,22 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>905195</v>
+        <v>730702</v>
       </c>
       <c r="F48" s="9">
-        <v>730702</v>
+        <v>1027145</v>
       </c>
       <c r="G48" s="9">
-        <v>1027145</v>
+        <v>2637275</v>
       </c>
       <c r="H48" s="9">
-        <v>2637275</v>
+        <v>3991130</v>
       </c>
       <c r="I48" s="9">
-        <v>3991130</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3148894</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>19</v>
       </c>
@@ -1508,22 +1508,22 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>14697</v>
+        <v>65350</v>
       </c>
       <c r="F49" s="11">
-        <v>65350</v>
+        <v>75517</v>
       </c>
       <c r="G49" s="11">
-        <v>75517</v>
+        <v>257466</v>
       </c>
       <c r="H49" s="11">
-        <v>257466</v>
+        <v>590728</v>
       </c>
       <c r="I49" s="11">
-        <v>590728</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>928404</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>21</v>
       </c>
@@ -1555,8 +1555,8 @@
         <v>27</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>12</v>
+      <c r="E51" s="11">
+        <v>0</v>
       </c>
       <c r="F51" s="11">
         <v>0</v>
@@ -1571,29 +1571,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>1172046</v>
+        <v>1185525</v>
       </c>
       <c r="F52" s="13">
-        <v>1185525</v>
+        <v>1505065</v>
       </c>
       <c r="G52" s="13">
-        <v>1505065</v>
+        <v>4246792</v>
       </c>
       <c r="H52" s="13">
-        <v>4246792</v>
+        <v>7078947</v>
       </c>
       <c r="I52" s="13">
-        <v>7078947</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8846679</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1613,7 +1613,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1623,7 +1623,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>28</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1655,7 +1655,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
@@ -1687,23 +1687,23 @@
         <v>29</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>12</v>
+      <c r="E59" s="11">
+        <v>250133169</v>
       </c>
       <c r="F59" s="11">
-        <v>250133169</v>
+        <v>272276490</v>
       </c>
       <c r="G59" s="11">
-        <v>272276490</v>
+        <v>525160000</v>
       </c>
       <c r="H59" s="11">
-        <v>525160000</v>
+        <v>726428932</v>
       </c>
       <c r="I59" s="11">
-        <v>726428932</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>939049848</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>24</v>
       </c>
@@ -1711,8 +1711,8 @@
         <v>30</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>12</v>
+      <c r="E60" s="9">
+        <v>0</v>
       </c>
       <c r="F60" s="9">
         <v>0</v>
@@ -1720,14 +1720,14 @@
       <c r="G60" s="9">
         <v>0</v>
       </c>
-      <c r="H60" s="9">
-        <v>0</v>
+      <c r="H60" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
@@ -1735,23 +1735,23 @@
         <v>29</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>12</v>
+      <c r="E61" s="11">
+        <v>137509259</v>
       </c>
       <c r="F61" s="11">
-        <v>137509259</v>
+        <v>114452247</v>
       </c>
       <c r="G61" s="11">
-        <v>114452247</v>
+        <v>326493639</v>
       </c>
       <c r="H61" s="11">
-        <v>326493639</v>
+        <v>651208333</v>
       </c>
       <c r="I61" s="11">
-        <v>651208333</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>336686747</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
@@ -1760,22 +1760,22 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>46895881</v>
+        <v>55142136</v>
       </c>
       <c r="F62" s="9">
-        <v>55142136</v>
+        <v>0</v>
       </c>
       <c r="G62" s="9">
-        <v>0</v>
+        <v>117637727</v>
       </c>
       <c r="H62" s="9">
-        <v>117637727</v>
+        <v>85297135</v>
       </c>
       <c r="I62" s="9">
-        <v>85297135</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212018465</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>17</v>
       </c>
@@ -1784,22 +1784,22 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>39217645</v>
+        <v>75645003</v>
       </c>
       <c r="F63" s="11">
-        <v>75645003</v>
+        <v>135441621</v>
       </c>
       <c r="G63" s="11">
-        <v>135441621</v>
+        <v>195786235</v>
       </c>
       <c r="H63" s="11">
-        <v>195786235</v>
+        <v>340809882</v>
       </c>
       <c r="I63" s="11">
-        <v>340809882</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257506667</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>18</v>
       </c>
@@ -1808,22 +1808,22 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>14206937</v>
+        <v>24629298</v>
       </c>
       <c r="F64" s="9">
-        <v>24629298</v>
+        <v>34704362</v>
       </c>
       <c r="G64" s="9">
-        <v>34704362</v>
+        <v>59053606</v>
       </c>
       <c r="H64" s="9">
-        <v>59053606</v>
+        <v>103800520</v>
       </c>
       <c r="I64" s="9">
-        <v>103800520</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>125239391</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>19</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>1088183</v>
+        <v>0</v>
       </c>
       <c r="F65" s="11">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="H65" s="11">
-        <v>0</v>
+        <v>9816182</v>
       </c>
       <c r="I65" s="11">
-        <v>9816182</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14432122</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -1879,8 +1879,8 @@
         <v>30</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>12</v>
+      <c r="E67" s="11">
+        <v>0</v>
       </c>
       <c r="F67" s="11">
         <v>0</v>
@@ -1888,14 +1888,14 @@
       <c r="G67" s="11">
         <v>0</v>
       </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1905,7 +1905,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1915,7 +1915,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1925,7 +1925,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>31</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1957,7 +1957,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>14</v>
       </c>
@@ -1965,23 +1965,23 @@
         <v>27</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>12</v>
+      <c r="E73" s="9">
+        <v>-202016</v>
       </c>
       <c r="F73" s="9">
-        <v>-202016</v>
+        <v>-160481</v>
       </c>
       <c r="G73" s="9">
-        <v>-160481</v>
+        <v>-13284</v>
       </c>
       <c r="H73" s="9">
-        <v>-13284</v>
+        <v>-908763</v>
       </c>
       <c r="I73" s="9">
-        <v>-908763</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1310198</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>24</v>
       </c>
@@ -1989,8 +1989,8 @@
         <v>27</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>12</v>
+      <c r="E74" s="11">
+        <v>0</v>
       </c>
       <c r="F74" s="11">
         <v>0</v>
@@ -1998,14 +1998,14 @@
       <c r="G74" s="11">
         <v>0</v>
       </c>
-      <c r="H74" s="11">
-        <v>0</v>
+      <c r="H74" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
@@ -2013,23 +2013,23 @@
         <v>27</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>12</v>
+      <c r="E75" s="9">
+        <v>-2848</v>
       </c>
       <c r="F75" s="9">
-        <v>-2848</v>
+        <v>-18952</v>
       </c>
       <c r="G75" s="9">
-        <v>-18952</v>
+        <v>-78581</v>
       </c>
       <c r="H75" s="9">
-        <v>-78581</v>
+        <v>-89368</v>
       </c>
       <c r="I75" s="9">
-        <v>-89368</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-27166</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2037,23 +2037,23 @@
         <v>27</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>12</v>
+      <c r="E76" s="11">
+        <v>-46961</v>
       </c>
       <c r="F76" s="11">
-        <v>-46961</v>
+        <v>0</v>
       </c>
       <c r="G76" s="11">
-        <v>0</v>
+        <v>-546259</v>
       </c>
       <c r="H76" s="11">
-        <v>-546259</v>
+        <v>-457350</v>
       </c>
       <c r="I76" s="11">
-        <v>-457350</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2026390</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>17</v>
       </c>
@@ -2061,23 +2061,23 @@
         <v>27</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>12</v>
+      <c r="E77" s="9">
+        <v>-52950</v>
       </c>
       <c r="F77" s="9">
-        <v>-52950</v>
+        <v>-102540</v>
       </c>
       <c r="G77" s="9">
-        <v>-102540</v>
+        <v>-284039</v>
       </c>
       <c r="H77" s="9">
-        <v>-284039</v>
+        <v>-479130</v>
       </c>
       <c r="I77" s="9">
-        <v>-479130</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-70383</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
@@ -2085,23 +2085,23 @@
         <v>27</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>12</v>
+      <c r="E78" s="11">
+        <v>-429312</v>
       </c>
       <c r="F78" s="11">
-        <v>-429312</v>
+        <v>-617715</v>
       </c>
       <c r="G78" s="11">
-        <v>-617715</v>
+        <v>-1767963</v>
       </c>
       <c r="H78" s="11">
-        <v>-1767963</v>
+        <v>-2940277</v>
       </c>
       <c r="I78" s="11">
-        <v>-2940277</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2192808</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
@@ -2109,23 +2109,23 @@
         <v>27</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>12</v>
+      <c r="E79" s="9">
+        <v>-30012</v>
       </c>
       <c r="F79" s="9">
-        <v>-30012</v>
+        <v>-39920</v>
       </c>
       <c r="G79" s="9">
-        <v>-39920</v>
+        <v>-69105</v>
       </c>
       <c r="H79" s="9">
-        <v>-69105</v>
+        <v>-116498</v>
       </c>
       <c r="I79" s="9">
-        <v>-116498</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-158564</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -2133,8 +2133,8 @@
         <v>27</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>12</v>
+      <c r="E80" s="11">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
@@ -2149,29 +2149,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>0</v>
+        <v>-764099</v>
       </c>
       <c r="F81" s="13">
-        <v>-764099</v>
+        <v>-939608</v>
       </c>
       <c r="G81" s="13">
-        <v>-939608</v>
+        <v>-2759231</v>
       </c>
       <c r="H81" s="13">
-        <v>-2759231</v>
+        <v>-4991386</v>
       </c>
       <c r="I81" s="13">
-        <v>-4991386</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5785509</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2181,7 +2181,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2191,7 +2191,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>32</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2233,7 +2233,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>14</v>
       </c>
@@ -2241,23 +2241,23 @@
         <v>27</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>12</v>
+      <c r="E87" s="9">
+        <v>842</v>
       </c>
       <c r="F87" s="9">
-        <v>842</v>
+        <v>3974</v>
       </c>
       <c r="G87" s="9">
-        <v>3974</v>
+        <v>12974</v>
       </c>
       <c r="H87" s="9">
-        <v>12974</v>
+        <v>241174</v>
       </c>
       <c r="I87" s="9">
-        <v>241174</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>234539</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>24</v>
       </c>
@@ -2265,23 +2265,23 @@
         <v>27</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>12</v>
+      <c r="E88" s="11">
+        <v>-12911</v>
       </c>
       <c r="F88" s="11">
-        <v>-12911</v>
+        <v>0</v>
       </c>
       <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
         <v>-172</v>
       </c>
+      <c r="H88" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I88" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>15</v>
       </c>
@@ -2289,23 +2289,23 @@
         <v>27</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>12</v>
+      <c r="E89" s="9">
+        <v>12003</v>
       </c>
       <c r="F89" s="9">
-        <v>12003</v>
+        <v>21793</v>
       </c>
       <c r="G89" s="9">
-        <v>21793</v>
+        <v>49731</v>
       </c>
       <c r="H89" s="9">
-        <v>49731</v>
+        <v>51293</v>
       </c>
       <c r="I89" s="9">
-        <v>51293</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>16</v>
       </c>
@@ -2313,23 +2313,23 @@
         <v>27</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>12</v>
+      <c r="E90" s="11">
+        <v>29466</v>
       </c>
       <c r="F90" s="11">
-        <v>29466</v>
+        <v>0</v>
       </c>
       <c r="G90" s="11">
-        <v>0</v>
+        <v>167802</v>
       </c>
       <c r="H90" s="11">
-        <v>167802</v>
+        <v>24920</v>
       </c>
       <c r="I90" s="11">
-        <v>24920</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1073744</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>17</v>
       </c>
@@ -2337,23 +2337,23 @@
         <v>27</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>12</v>
+      <c r="E91" s="9">
+        <v>55298</v>
       </c>
       <c r="F91" s="9">
-        <v>55298</v>
+        <v>94663</v>
       </c>
       <c r="G91" s="9">
-        <v>94663</v>
+        <v>199553</v>
       </c>
       <c r="H91" s="9">
-        <v>199553</v>
+        <v>245091</v>
       </c>
       <c r="I91" s="9">
-        <v>245091</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26182</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>18</v>
       </c>
@@ -2361,23 +2361,23 @@
         <v>27</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>12</v>
+      <c r="E92" s="11">
+        <v>301390</v>
       </c>
       <c r="F92" s="11">
-        <v>301390</v>
+        <v>409430</v>
       </c>
       <c r="G92" s="11">
-        <v>409430</v>
+        <v>869312</v>
       </c>
       <c r="H92" s="11">
-        <v>869312</v>
+        <v>1050853</v>
       </c>
       <c r="I92" s="11">
-        <v>1050853</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>956086</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>19</v>
       </c>
@@ -2385,23 +2385,23 @@
         <v>27</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>12</v>
+      <c r="E93" s="9">
+        <v>35338</v>
       </c>
       <c r="F93" s="9">
-        <v>35338</v>
+        <v>35597</v>
       </c>
       <c r="G93" s="9">
-        <v>35597</v>
+        <v>188361</v>
       </c>
       <c r="H93" s="9">
-        <v>188361</v>
+        <v>474230</v>
       </c>
       <c r="I93" s="9">
-        <v>474230</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>769840</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>21</v>
       </c>
@@ -2412,8 +2412,8 @@
       <c r="E94" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="11" t="s">
-        <v>12</v>
+      <c r="F94" s="11">
+        <v>0</v>
       </c>
       <c r="G94" s="11">
         <v>0</v>
@@ -2425,26 +2425,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>0</v>
+        <v>421426</v>
       </c>
       <c r="F95" s="13">
-        <v>421426</v>
+        <v>565457</v>
       </c>
       <c r="G95" s="13">
-        <v>565457</v>
+        <v>1487561</v>
       </c>
       <c r="H95" s="13">
-        <v>1487561</v>
+        <v>2087561</v>
       </c>
       <c r="I95" s="13">
-        <v>2087561</v>
+        <v>3061170</v>
       </c>
     </row>
   </sheetData>
